--- a/eclipse-workspace/MiniProject1/target/test-classes/LoginData.xlsx
+++ b/eclipse-workspace/MiniProject1/target/test-classes/LoginData.xlsx
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
